--- a/2017_2/204-Gnjatovic/204-1012-1-SP.xlsx
+++ b/2017_2/204-Gnjatovic/204-1012-1-SP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="6795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,15 +135,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -155,6 +146,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -512,11 +512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2002194528"/>
-        <c:axId val="2002184736"/>
+        <c:axId val="-1264455232"/>
+        <c:axId val="-1264456320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2002194528"/>
+        <c:axId val="-1264455232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2002184736"/>
+        <c:crossAx val="-1264456320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -534,7 +534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2002184736"/>
+        <c:axId val="-1264456320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,13 +545,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2002194528"/>
+        <c:crossAx val="-1264455232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -577,10 +577,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>490904</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>58616</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>212480</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -891,35 +891,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1139,213 +1141,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="8">
         <v>1929</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>59966.3</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>49.1</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>57.8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>1930</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="7">
         <v>50418.2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>10.6</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>57.6</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>68.2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>1931</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>45099.7</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>12.2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>67.400000000000006</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <v>79.599999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>1932</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>36480.9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>16.5</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <v>89.8</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <v>106.3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>1933</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>36117</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>22.1</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>50.7</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>72.8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>1934</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>34065.699999999997</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>25.6</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <v>60.6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>86.2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>1935</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>34602.300000000003</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>25.1</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>60.8</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>85.9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>1936</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>40744</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>21.8</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>52.5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="6">
         <v>74.3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>1937</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>45026.6</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>25.6</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>34.200000000000003</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>59.8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>1938</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>48475.5</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>19.2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <v>29.3</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <v>48.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>1939</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>52784.1</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>23.9</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>22.7</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>46.6</v>
       </c>
     </row>
